--- a/MODOT/src/test/resources/DataProvider/RIN.xlsx
+++ b/MODOT/src/test/resources/DataProvider/RIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\MODOT\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350661C1-6D51-4A28-861A-E3F3F6F36066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6DCC77-7529-4A9A-8BEE-D481B7D3ED1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{D640E293-758B-4626-A40B-CD56E3B07BFF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{D640E293-758B-4626-A40B-CD56E3B07BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>InactiveDate</t>
   </si>
   <si>
-    <t>30941</t>
-  </si>
-  <si>
     <t>07312021</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>IRPBILL01 : [I] Reinstatement process completed successfully.</t>
+  </si>
+  <si>
+    <t>30942</t>
   </si>
 </sst>
 </file>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19350A59-09D4-4F0F-9855-31C3D933F9C7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -430,10 +430,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F48C43F-3384-475E-85A0-187445A3DB1A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -457,18 +457,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
